--- a/Comprehensive Financial Management.xlsx
+++ b/Comprehensive Financial Management.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kulture-hire-Intern\Personal-Expense-Tracker-Using-Excel-Assignment-1-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kulture-hire-Intern\Comprehensive-Financial-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -646,6 +646,18 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -661,24 +673,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Date" xfId="6"/>
@@ -692,25 +692,154 @@
   </cellStyles>
   <dxfs count="76">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right/>
         <top style="medium">
           <color indexed="64"/>
@@ -736,400 +865,15 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
           <color indexed="64"/>
         </left>
         <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
         <top style="medium">
           <color indexed="64"/>
         </top>
         <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -1157,6 +901,16 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1183,9 +937,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top/>
         <bottom style="thin">
           <color indexed="64"/>
@@ -1546,6 +1298,33 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1577,6 +1356,13 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1599,18 +1385,17 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -1638,6 +1423,28 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1664,11 +1471,21 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top/>
         <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -1706,6 +1523,18 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1738,6 +1567,18 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1770,6 +1611,18 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1802,6 +1655,18 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1834,6 +1699,18 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1866,6 +1743,18 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1898,6 +1787,18 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1930,6 +1831,18 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1962,6 +1875,18 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1994,6 +1919,18 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2026,6 +1963,20 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2058,6 +2009,13 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2080,14 +2038,56 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2278,46 +2278,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A6:N11" headerRowCount="0" totalsRowCount="1" headerRowDxfId="35" headerRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A6:N11" headerRowCount="0" totalsRowCount="1" headerRowDxfId="60" headerRowBorderDxfId="59">
   <tableColumns count="14">
-    <tableColumn id="1" name="Income" totalsRowLabel="Total Income" headerRowDxfId="65" totalsRowDxfId="28"/>
-    <tableColumn id="2" name="Column1" totalsRowFunction="custom" headerRowDxfId="64" totalsRowDxfId="27">
+    <tableColumn id="1" name="Income" totalsRowLabel="Total Income" headerRowDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="2" name="Column1" totalsRowFunction="custom" headerRowDxfId="56" totalsRowDxfId="55">
       <totalsRowFormula>IF(SUBTOTAL(109, B7:B10)=0, "", SUBTOTAL(109, B7:B10))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Column2" totalsRowFunction="custom" headerRowDxfId="63" totalsRowDxfId="26">
+    <tableColumn id="3" name="Column2" totalsRowFunction="custom" headerRowDxfId="54" totalsRowDxfId="53">
       <totalsRowFormula>IF(SUBTOTAL(109, C7:C10)=0, "", SUBTOTAL(109, C7:C10))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column3" totalsRowFunction="custom" headerRowDxfId="62" totalsRowDxfId="25">
+    <tableColumn id="4" name="Column3" totalsRowFunction="custom" headerRowDxfId="52" totalsRowDxfId="51">
       <totalsRowFormula>IF(SUBTOTAL(109, D7:D10)=0, "", SUBTOTAL(109, D7:D10))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Column4" totalsRowFunction="custom" headerRowDxfId="61" totalsRowDxfId="24">
+    <tableColumn id="5" name="Column4" totalsRowFunction="custom" headerRowDxfId="50" totalsRowDxfId="49">
       <totalsRowFormula>IF(SUBTOTAL(109, E7:E10)=0, "", SUBTOTAL(109, E7:E10))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Column5" totalsRowFunction="custom" headerRowDxfId="60" totalsRowDxfId="23">
+    <tableColumn id="6" name="Column5" totalsRowFunction="custom" headerRowDxfId="48" totalsRowDxfId="47">
       <totalsRowFormula>IF(SUBTOTAL(109, F7:F10)=0, "", SUBTOTAL(109, F7:F10))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Column6" totalsRowFunction="custom" headerRowDxfId="59" totalsRowDxfId="22">
+    <tableColumn id="7" name="Column6" totalsRowFunction="custom" headerRowDxfId="46" totalsRowDxfId="45">
       <totalsRowFormula>IF(SUBTOTAL(109, G7:G10)=0, "", SUBTOTAL(109, G7:G10))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Column7" totalsRowFunction="custom" headerRowDxfId="58" totalsRowDxfId="21">
+    <tableColumn id="8" name="Column7" totalsRowFunction="custom" headerRowDxfId="44" totalsRowDxfId="43">
       <totalsRowFormula>IF(SUBTOTAL(109, H7:H10)=0, "", SUBTOTAL(109, H7:H10))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="Column8" totalsRowFunction="custom" headerRowDxfId="57" totalsRowDxfId="20">
+    <tableColumn id="9" name="Column8" totalsRowFunction="custom" headerRowDxfId="42" totalsRowDxfId="41">
       <totalsRowFormula>IF(SUBTOTAL(109, I7:I10)=0, "", SUBTOTAL(109, I7:I10))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="Column9" totalsRowFunction="custom" headerRowDxfId="56" totalsRowDxfId="19">
+    <tableColumn id="10" name="Column9" totalsRowFunction="custom" headerRowDxfId="40" totalsRowDxfId="39">
       <totalsRowFormula>IF(SUBTOTAL(109, J7:J10)=0, "", SUBTOTAL(109, J7:J10))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="Column10" totalsRowFunction="custom" headerRowDxfId="55" totalsRowDxfId="18">
+    <tableColumn id="11" name="Column10" totalsRowFunction="custom" headerRowDxfId="38" totalsRowDxfId="37">
       <totalsRowFormula>IF(SUBTOTAL(109, K7:K10)=0, "", SUBTOTAL(109, K7:K10))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="Column11" totalsRowFunction="custom" headerRowDxfId="54" totalsRowDxfId="17">
+    <tableColumn id="12" name="Column11" totalsRowFunction="custom" headerRowDxfId="36" totalsRowDxfId="35">
       <totalsRowFormula>IF(SUBTOTAL(109, L7:L10)=0, "", SUBTOTAL(109, L7:L10))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="Column12" totalsRowFunction="custom" headerRowDxfId="53" totalsRowDxfId="16">
+    <tableColumn id="13" name="Column12" totalsRowFunction="custom" headerRowDxfId="34" totalsRowDxfId="33">
       <totalsRowFormula>IF(SUBTOTAL(109, M7:M10)=0, "", SUBTOTAL(109, M7:M10))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" name="Column13" totalsRowFunction="custom" headerRowDxfId="52" totalsRowDxfId="15">
+    <tableColumn id="14" name="Column13" totalsRowFunction="custom" headerRowDxfId="32" totalsRowDxfId="31">
       <totalsRowFormula>IF(SUBTOTAL(109, N7:N10)=0, "", SUBTOTAL(109, N7:N10))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2326,46 +2326,46 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A15:N30" headerRowCount="0" totalsRowCount="1" headerRowDxfId="51" headerRowBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A15:N30" headerRowCount="0" totalsRowCount="1" headerRowDxfId="30" headerRowBorderDxfId="29">
   <tableColumns count="14">
-    <tableColumn id="1" name="Income" totalsRowLabel="Total Expenses" headerRowDxfId="49" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" name="Column1" totalsRowFunction="custom" headerRowDxfId="48" totalsRowDxfId="14">
+    <tableColumn id="1" name="Income" totalsRowLabel="Total Expenses" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="13" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" name="Column1" totalsRowFunction="custom" headerRowDxfId="26" totalsRowDxfId="12">
       <totalsRowFormula>IF(SUBTOTAL(109, B17:B29)=0, "", SUBTOTAL(109, B17:B29))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Column2" totalsRowFunction="custom" headerRowDxfId="47" totalsRowDxfId="13">
+    <tableColumn id="3" name="Column2" totalsRowFunction="custom" headerRowDxfId="25" totalsRowDxfId="11">
       <totalsRowFormula>IF(SUBTOTAL(109, C17:C29)=0, "", SUBTOTAL(109, C17:C29))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column3" totalsRowFunction="custom" headerRowDxfId="46" totalsRowDxfId="12">
+    <tableColumn id="4" name="Column3" totalsRowFunction="custom" headerRowDxfId="24" totalsRowDxfId="10">
       <totalsRowFormula>IF(SUBTOTAL(109, D17:D29)=0, "", SUBTOTAL(109, D17:D29))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Column4" totalsRowFunction="custom" headerRowDxfId="45" totalsRowDxfId="11">
+    <tableColumn id="5" name="Column4" totalsRowFunction="custom" headerRowDxfId="23" totalsRowDxfId="9">
       <totalsRowFormula>IF(SUBTOTAL(109, E17:E29)=0, "", SUBTOTAL(109, E17:E29))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Column5" totalsRowFunction="custom" headerRowDxfId="44" totalsRowDxfId="10">
+    <tableColumn id="6" name="Column5" totalsRowFunction="custom" headerRowDxfId="22" totalsRowDxfId="8">
       <totalsRowFormula>IF(SUBTOTAL(109, F17:F29)=0, "", SUBTOTAL(109, F17:F29))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Column6" totalsRowFunction="custom" headerRowDxfId="43" totalsRowDxfId="9">
+    <tableColumn id="7" name="Column6" totalsRowFunction="custom" headerRowDxfId="21" totalsRowDxfId="7">
       <totalsRowFormula>IF(SUBTOTAL(109, G17:G29)=0, "", SUBTOTAL(109, G17:G29))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Column7" totalsRowFunction="custom" headerRowDxfId="42" totalsRowDxfId="8">
+    <tableColumn id="8" name="Column7" totalsRowFunction="custom" headerRowDxfId="20" totalsRowDxfId="6">
       <totalsRowFormula>IF(SUBTOTAL(109, H17:H29)=0, "", SUBTOTAL(109, H17:H29))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="Column8" totalsRowFunction="custom" headerRowDxfId="41" totalsRowDxfId="7">
+    <tableColumn id="9" name="Column8" totalsRowFunction="custom" headerRowDxfId="19" totalsRowDxfId="5">
       <totalsRowFormula>IF(SUBTOTAL(109, I17:I29)=0, "", SUBTOTAL(109, I17:I29))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="Column9" totalsRowFunction="custom" headerRowDxfId="40" totalsRowDxfId="6">
+    <tableColumn id="10" name="Column9" totalsRowFunction="custom" headerRowDxfId="18" totalsRowDxfId="4">
       <totalsRowFormula>IF(SUBTOTAL(109, J17:J29)=0, "", SUBTOTAL(109, J17:J29))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="Column10" totalsRowFunction="custom" headerRowDxfId="39" totalsRowDxfId="5">
+    <tableColumn id="11" name="Column10" totalsRowFunction="custom" headerRowDxfId="17" totalsRowDxfId="3">
       <totalsRowFormula>IF(SUBTOTAL(109, K17:K29)=0, "", SUBTOTAL(109, K17:K29))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="Column11" totalsRowFunction="custom" headerRowDxfId="38" totalsRowDxfId="4">
+    <tableColumn id="12" name="Column11" totalsRowFunction="custom" headerRowDxfId="16" totalsRowDxfId="2">
       <totalsRowFormula>IF(SUBTOTAL(109, L17:L29)=0, "", SUBTOTAL(109, L17:L29))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="Column12" totalsRowFunction="custom" headerRowDxfId="37" totalsRowDxfId="3">
+    <tableColumn id="13" name="Column12" totalsRowFunction="custom" headerRowDxfId="15" totalsRowDxfId="1">
       <totalsRowFormula>IF(SUBTOTAL(109, M17:M29)=0, "", SUBTOTAL(109, M17:M29))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" name="Column13" totalsRowFunction="custom" headerRowDxfId="36" totalsRowDxfId="2">
+    <tableColumn id="14" name="Column13" totalsRowFunction="custom" headerRowDxfId="14" totalsRowDxfId="0">
       <totalsRowFormula>IF(SUBTOTAL(109, N17:N29)=0, "", SUBTOTAL(109, N17:N29))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2672,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="C14" zoomScale="107" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection sqref="A1:R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2686,26 +2686,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="25"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="35"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="P2" s="16" t="s">
@@ -2715,91 +2715,91 @@
       <c r="R2" s="18"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="1">
         <v>50000</v>
       </c>
-      <c r="P3" s="28" t="s">
+      <c r="P3" s="23" t="s">
         <v>35</v>
       </c>
       <c r="Q3" s="19"/>
       <c r="R3" s="20"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="P4" s="28" t="s">
+      <c r="P4" s="23" t="s">
         <v>36</v>
       </c>
       <c r="Q4" s="19"/>
       <c r="R4" s="20"/>
     </row>
     <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="P5" s="29" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="P5" s="24" t="s">
         <v>37</v>
       </c>
       <c r="Q5" s="21"/>
       <c r="R5" s="22"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="M6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="35" t="s">
+      <c r="N6" s="30" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3008,69 +3008,69 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="31" t="s">
+      <c r="L15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="31" t="s">
+      <c r="M15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="32" t="s">
+      <c r="N15" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="4"/>
@@ -3109,9 +3109,18 @@
       <c r="G17">
         <v>21000</v>
       </c>
+      <c r="H17">
+        <v>21000</v>
+      </c>
+      <c r="I17">
+        <v>21000</v>
+      </c>
+      <c r="J17">
+        <v>21000</v>
+      </c>
       <c r="N17" s="3">
         <f>SUM(Table24[[#This Row],[Column1]:[Column12]])</f>
-        <v>124500</v>
+        <v>187500</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -3136,9 +3145,18 @@
       <c r="G18">
         <v>2800</v>
       </c>
+      <c r="H18">
+        <v>2800</v>
+      </c>
+      <c r="I18">
+        <v>2800</v>
+      </c>
+      <c r="J18">
+        <v>2800</v>
+      </c>
       <c r="N18" s="3">
         <f>SUM(Table24[[#This Row],[Column1]:[Column12]])</f>
-        <v>17600</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -3163,9 +3181,18 @@
       <c r="G19">
         <v>1100</v>
       </c>
+      <c r="H19">
+        <v>1100</v>
+      </c>
+      <c r="I19">
+        <v>1100</v>
+      </c>
+      <c r="J19">
+        <v>1100</v>
+      </c>
       <c r="N19" s="3">
         <f>SUM(Table24[[#This Row],[Column1]:[Column12]])</f>
-        <v>5650</v>
+        <v>8950</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -3190,9 +3217,18 @@
       <c r="G20">
         <v>950</v>
       </c>
+      <c r="H20">
+        <v>1000</v>
+      </c>
+      <c r="I20">
+        <v>1100</v>
+      </c>
+      <c r="J20">
+        <v>950</v>
+      </c>
       <c r="N20" s="3">
         <f>SUM(Table24[[#This Row],[Column1]:[Column12]])</f>
-        <v>5450</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -3209,17 +3245,26 @@
         <v>400</v>
       </c>
       <c r="E21">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F21">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G21">
-        <v>400</v>
+        <v>500</v>
+      </c>
+      <c r="H21">
+        <v>500</v>
+      </c>
+      <c r="I21">
+        <v>600</v>
+      </c>
+      <c r="J21">
+        <v>600</v>
       </c>
       <c r="N21" s="3">
         <f>SUM(Table24[[#This Row],[Column1]:[Column12]])</f>
-        <v>2400</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -3239,18 +3284,27 @@
         <v>1800</v>
       </c>
       <c r="F22">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="G22">
+        <v>3000</v>
+      </c>
+      <c r="H22">
+        <v>2500</v>
+      </c>
+      <c r="I22">
+        <v>3800</v>
+      </c>
+      <c r="J22">
         <v>3800</v>
       </c>
       <c r="N22" s="3">
         <f>SUM(Table24[[#This Row],[Column1]:[Column12]])</f>
-        <v>8350</v>
+        <v>18750</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="4"/>
@@ -3268,7 +3322,7 @@
       <c r="N23" s="5"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="32" t="s">
         <v>25</v>
       </c>
       <c r="B24">
@@ -3289,13 +3343,22 @@
       <c r="G24">
         <v>1250</v>
       </c>
+      <c r="H24">
+        <v>1250</v>
+      </c>
+      <c r="I24">
+        <v>1300</v>
+      </c>
+      <c r="J24">
+        <v>1300</v>
+      </c>
       <c r="N24" s="3">
         <f>SUM(Table24[[#This Row],[Column1]:[Column12]])</f>
-        <v>6650</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="32" t="s">
         <v>26</v>
       </c>
       <c r="B25">
@@ -3316,13 +3379,22 @@
       <c r="G25">
         <v>750</v>
       </c>
+      <c r="H25">
+        <v>750</v>
+      </c>
+      <c r="I25">
+        <v>800</v>
+      </c>
+      <c r="J25">
+        <v>750</v>
+      </c>
       <c r="N25" s="3">
         <f>SUM(Table24[[#This Row],[Column1]:[Column12]])</f>
-        <v>3250</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="4"/>
@@ -3361,9 +3433,18 @@
       <c r="G27">
         <v>600</v>
       </c>
+      <c r="H27">
+        <v>600</v>
+      </c>
+      <c r="I27">
+        <v>600</v>
+      </c>
+      <c r="J27">
+        <v>600</v>
+      </c>
       <c r="N27" s="3">
         <f>SUM(Table24[[#This Row],[Column1]:[Column12]])</f>
-        <v>3450</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -3388,9 +3469,18 @@
       <c r="G28">
         <v>1100</v>
       </c>
+      <c r="H28">
+        <v>2000</v>
+      </c>
+      <c r="I28">
+        <v>1100</v>
+      </c>
+      <c r="J28">
+        <v>1100</v>
+      </c>
       <c r="N28" s="3">
         <f>SUM(Table24[[#This Row],[Column1]:[Column12]])</f>
-        <v>7600</v>
+        <v>11800</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3415,9 +3505,18 @@
       <c r="G29">
         <v>20</v>
       </c>
+      <c r="H29">
+        <v>20</v>
+      </c>
+      <c r="I29">
+        <v>20</v>
+      </c>
+      <c r="J29">
+        <v>20</v>
+      </c>
       <c r="N29" s="3">
         <f>SUM(Table24[[#This Row],[Column1]:[Column12]])</f>
-        <v>720</v>
+        <v>780</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3425,56 +3524,56 @@
         <v>30</v>
       </c>
       <c r="B30" s="10">
-        <f>IF(SUBTOTAL(109, B17:B29)=0, "", SUBTOTAL(109, B17:B29))</f>
+        <f t="shared" ref="B30:N30" si="1">IF(SUBTOTAL(109, B17:B29)=0, "", SUBTOTAL(109, B17:B29))</f>
         <v>28050</v>
       </c>
       <c r="C30" s="10">
-        <f>IF(SUBTOTAL(109, C17:C29)=0, "", SUBTOTAL(109, C17:C29))</f>
+        <f t="shared" si="1"/>
         <v>29050</v>
       </c>
       <c r="D30" s="10">
-        <f>IF(SUBTOTAL(109, D17:D29)=0, "", SUBTOTAL(109, D17:D29))</f>
+        <f t="shared" si="1"/>
         <v>30050</v>
       </c>
       <c r="E30" s="10">
-        <f>IF(SUBTOTAL(109, E17:E29)=0, "", SUBTOTAL(109, E17:E29))</f>
-        <v>33000</v>
+        <f t="shared" si="1"/>
+        <v>33100</v>
       </c>
       <c r="F30" s="10">
-        <f>IF(SUBTOTAL(109, F17:F29)=0, "", SUBTOTAL(109, F17:F29))</f>
-        <v>31700</v>
+        <f t="shared" si="1"/>
+        <v>32900</v>
       </c>
       <c r="G30" s="10">
-        <f>IF(SUBTOTAL(109, G17:G29)=0, "", SUBTOTAL(109, G17:G29))</f>
-        <v>33770</v>
-      </c>
-      <c r="H30" s="10" t="str">
-        <f>IF(SUBTOTAL(109, H17:H29)=0, "", SUBTOTAL(109, H17:H29))</f>
+        <f t="shared" si="1"/>
+        <v>33070</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="1"/>
+        <v>33520</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="1"/>
+        <v>34220</v>
+      </c>
+      <c r="J30" s="10">
+        <f t="shared" si="1"/>
+        <v>34020</v>
+      </c>
+      <c r="K30" s="10" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I30" s="10" t="str">
-        <f>IF(SUBTOTAL(109, I17:I29)=0, "", SUBTOTAL(109, I17:I29))</f>
+      <c r="L30" s="10" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J30" s="10" t="str">
-        <f>IF(SUBTOTAL(109, J17:J29)=0, "", SUBTOTAL(109, J17:J29))</f>
+      <c r="M30" s="10" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K30" s="10" t="str">
-        <f>IF(SUBTOTAL(109, K17:K29)=0, "", SUBTOTAL(109, K17:K29))</f>
-        <v/>
-      </c>
-      <c r="L30" s="10" t="str">
-        <f>IF(SUBTOTAL(109, L17:L29)=0, "", SUBTOTAL(109, L17:L29))</f>
-        <v/>
-      </c>
-      <c r="M30" s="10" t="str">
-        <f>IF(SUBTOTAL(109, M17:M29)=0, "", SUBTOTAL(109, M17:M29))</f>
-        <v/>
-      </c>
       <c r="N30" s="11">
-        <f>IF(SUBTOTAL(109, N17:N29)=0, "", SUBTOTAL(109, N17:N29))</f>
-        <v>185620</v>
+        <f t="shared" si="1"/>
+        <v>287980</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -3496,15 +3595,15 @@
       </c>
       <c r="E33" s="14">
         <f>Table2[[#Totals],[Column4]]-Table24[[#Totals],[Column4]]</f>
-        <v>50500</v>
+        <v>50400</v>
       </c>
       <c r="F33" s="14">
         <f>Table2[[#Totals],[Column5]]-Table24[[#Totals],[Column5]]</f>
-        <v>73900</v>
+        <v>72700</v>
       </c>
       <c r="G33" s="14">
         <f>Table2[[#Totals],[Column6]]-Table24[[#Totals],[Column6]]</f>
-        <v>71430</v>
+        <v>72130</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -3514,7 +3613,7 @@
       <c r="M33" s="14"/>
       <c r="N33" s="15">
         <f>IF(SUBTOTAL(109, B33:M33)=0, "", SUBTOTAL(109, B33:M33))</f>
-        <v>339080</v>
+        <v>338480</v>
       </c>
     </row>
   </sheetData>
@@ -3526,21 +3625,21 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B33:G33">
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="4" operator="lessThan">
       <formula>4000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="5" operator="equal">
       <formula>4000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:N33">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="lessThan">
       <formula>5000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>5000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="lessThan">
       <formula>50000</formula>
     </cfRule>
   </conditionalFormatting>
